--- a/medicine/Psychotrope/Sous-bock/Sous-bock.xlsx
+++ b/medicine/Psychotrope/Sous-bock/Sous-bock.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un sous-bock ou rond à bière, est un sous-verre prévu pour les verres à bière (chopes), généralement en carton, servant de support publicitaire puisqu'il est décoré aux couleurs d'une marque.
 Le collectionneur de sous-bocks est appelé cervalobélophile, la cervalobélophilie étant une sous-catégorie de la tégestophilie. 
@@ -516,7 +528,9 @@
           <t>Fonctions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La fonction première du sous-bock est de récupérer l'eau de condensation, qui se forme lorsque le verre de bière froid entre en contact avec l'air ambiant plus chaud et qui s'écoule le long du verre.
 Il fait aussi office de support publicitaire, en particulier pour les brasseries.
@@ -554,7 +568,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'origine des sous-bocks cartonnés que nous connaissons aujourd'hui remonte à la fin du XIXe siècle. Il fut probablement inventé en Allemagne, terre brassicole.
 En 1880, l'entreprise d'imprimerie et de cartonnage Friederich Horn de Buckau, près de Magdebourg en Allemagne, a découpé des dessous de verre en carton sur lesquels elle imprima divers motifs.
